--- a/PDD As Is Steps.xlsx
+++ b/PDD As Is Steps.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD612935-3C52-4F07-A604-B4215FB850B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3191FCD8-650B-43D0-BC59-C47A78A12F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="311" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed_process" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Step</t>
   </si>
@@ -46,7 +46,52 @@
     <t>Possible Actions/ Bot Design Alternatives</t>
   </si>
   <si>
-    <t>asdasdasd</t>
+    <t>Open Chrome</t>
+  </si>
+  <si>
+    <t>No Chrome installed</t>
+  </si>
+  <si>
+    <t>Global Health Website</t>
+  </si>
+  <si>
+    <t>Enter the website and login</t>
+  </si>
+  <si>
+    <t>Get data from adminstrative portal and copy into an excel sheet</t>
+  </si>
+  <si>
+    <t>Excel sheet filled with data</t>
+  </si>
+  <si>
+    <t>N.A.</t>
+  </si>
+  <si>
+    <t>Password Wrong/ No Internet</t>
+  </si>
+  <si>
+    <t>noInternetError</t>
+  </si>
+  <si>
+    <t>Bot will data scrap the table and save into datatable</t>
+  </si>
+  <si>
+    <t>Open the Google Form Data Bank Website and Take each customer's data and input into the google sheet</t>
+  </si>
+  <si>
+    <t>Bot gets data from data table and fills the form up for every customer</t>
+  </si>
+  <si>
+    <t>Outlook/Excel sheet filled with data</t>
+  </si>
+  <si>
+    <t>Send email to customer that are drinkers, smokers and overweight in terms of BMI with attachments</t>
+  </si>
+  <si>
+    <t>Weight is not a number, height not in metres, email address not valid, age not above 18</t>
+  </si>
+  <si>
+    <t>Bot does the validation before sending all customers that are in the smoking, drinking and overweight catergory</t>
   </si>
 </sst>
 </file>
@@ -135,10 +180,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -155,6 +200,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2448014</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1219325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52C0D6A-297F-470A-9D3B-10EDDEA1B454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="1143000"/>
+          <a:ext cx="638264" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353159</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4419601</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2402682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B66094-0CDA-4732-8FE7-C51613AFDA7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3591659" y="2771776"/>
+          <a:ext cx="4066442" cy="2202656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4403098</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2220672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D563A1-332D-4844-BA1B-F5984A6222AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="5132917"/>
+          <a:ext cx="4060198" cy="2145530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4565028</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2382634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D34F31-61A0-4E58-8A87-DF9BE00A8E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="7478077"/>
+          <a:ext cx="4269753" cy="2315007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4486274</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D9D022-23E0-47BD-B8A9-A6AF0E466F2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800474" y="9896475"/>
+          <a:ext cx="4181475" cy="2580910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,14 +692,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="29" style="3" customWidth="1"/>
     <col min="4" max="4" width="71.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="3" customWidth="1"/>
@@ -464,81 +734,141 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -550,9 +880,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -594,26 +922,57 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>